--- a/codigo/2D/ejemplo_Q8/malla_2/malla2.xlsx
+++ b/codigo/2D/ejemplo_Q8/malla_2/malla2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,8 @@
     <sheet name="restric" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="carga_distr" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="prop_mat" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="kWinkler" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="prop_mat" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -63,7 +64,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -100,7 +101,131 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">X=1, Y=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -159,46 +284,10 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">N</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -245,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -286,7 +375,7 @@
     <t xml:space="preserve">material</t>
   </si>
   <si>
-    <t xml:space="preserve">dirección</t>
+    <t xml:space="preserve">direccion</t>
   </si>
   <si>
     <t xml:space="preserve">desplazamiento</t>
@@ -310,7 +399,31 @@
     <t xml:space="preserve">tjy</t>
   </si>
   <si>
-    <t xml:space="preserve">fuerza puntual</t>
+    <t xml:space="preserve">tkx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuerza_puntual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kky</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -461,12 +574,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -542,9 +655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -554,7 +667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10090800" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,9 +700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -599,7 +712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10090800" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -637,9 +750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -649,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10063800" cy="9523800"/>
+          <a:ext cx="10081800" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,9 +795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -694,7 +807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10063800" cy="9523800"/>
+          <a:ext cx="10081800" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,9 +845,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -744,7 +857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10094760" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,9 +890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -789,7 +902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10094760" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,9 +935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -834,7 +947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10094760" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,9 +980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -879,7 +992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10094760" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,10 +1029,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>781920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -929,7 +1042,102 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10090800" cy="9522720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>781920</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10090800" cy="9522720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10046880" cy="9559800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,19 +1170,109 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:colOff>262800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072800" cy="9523800"/>
+          <a:ext cx="10046880" cy="9559800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10046880" cy="9559800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10046880" cy="9559800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,21 +1300,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C342"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F334" activeCellId="0" sqref="F334"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,7 +5420,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5135,25 +5431,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,7 +8719,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8434,24 +8728,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8729,7 +9021,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8740,22 +9032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -8773,12 +9062,18 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8789,22 +9084,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8812,7 +9107,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8840,7 +9135,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8851,36 +9146,85 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8903,7 +9247,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/codigo/2D/ejemplo_Q8/malla_2/malla2.xlsx
+++ b/codigo/2D/ejemplo_Q8/malla_2/malla2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,18 @@
     <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="kWinkler" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="prop_mat" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="varios" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="espesor" vbProcedure="false">varios!$B$5</definedName>
+    <definedName function="false" hidden="false" name="g" vbProcedure="false">varios!$B$4</definedName>
+    <definedName function="false" hidden="false" name="Poisson" vbProcedure="false">varios!$B$2</definedName>
+    <definedName function="false" hidden="false" name="rho" vbProcedure="false">varios!$B$3</definedName>
+    <definedName function="false" hidden="false" name="U_ESFUERZO" vbProcedure="false">varios!$B$8</definedName>
+    <definedName function="false" hidden="false" name="U_FUERZA" vbProcedure="false">varios!$B$7</definedName>
+    <definedName function="false" hidden="false" name="U_LONG" vbProcedure="false">varios!$B$6</definedName>
+    <definedName function="false" hidden="false" name="Young" vbProcedure="false">varios!$B$1</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -334,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -436,6 +447,54 @@
   </si>
   <si>
     <t xml:space="preserve">espesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">módulo de Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeficiente de Poisson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de fuerza en N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg/m³</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de longitud en m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/s²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aceleracion de la gravedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_FUERZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_ESFUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC_UV</t>
   </si>
 </sst>
 </file>
@@ -655,9 +714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -667,7 +726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10090800" cy="9522720"/>
+          <a:ext cx="10121400" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,9 +759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -712,7 +771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10090800" cy="9522720"/>
+          <a:ext cx="10121400" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,9 +809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -762,7 +821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10081800" cy="9522720"/>
+          <a:ext cx="10112400" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,9 +854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -807,7 +866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10081800" cy="9522720"/>
+          <a:ext cx="10112400" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,9 +904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -857,7 +916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10094760" cy="9522720"/>
+          <a:ext cx="10131480" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -890,9 +949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -902,7 +961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10094760" cy="9522720"/>
+          <a:ext cx="10131480" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,9 +994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -947,7 +1006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10094760" cy="9522720"/>
+          <a:ext cx="10131480" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -980,9 +1039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -992,7 +1051,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10094760" cy="9522720"/>
+          <a:ext cx="10131480" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,9 +1089,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>781920</xdr:colOff>
+      <xdr:colOff>780840</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1042,7 +1101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10090800" cy="9522720"/>
+          <a:ext cx="10121400" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,9 +1134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>781920</xdr:colOff>
+      <xdr:colOff>780840</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1087,7 +1146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10090800" cy="9522720"/>
+          <a:ext cx="10121400" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,9 +1184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1137,7 +1196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10046880" cy="9559800"/>
+          <a:ext cx="10091520" cy="9558720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,9 +1229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1182,7 +1241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10046880" cy="9559800"/>
+          <a:ext cx="10091520" cy="9558720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,9 +1274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1227,7 +1286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10046880" cy="9559800"/>
+          <a:ext cx="10091520" cy="9558720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1260,9 +1319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1272,7 +1331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10046880" cy="9559800"/>
+          <a:ext cx="10091520" cy="9558720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,12 +1366,12 @@
   <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,10 +5497,10 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.51"/>
@@ -8735,10 +8794,10 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.37"/>
   </cols>
@@ -9038,11 +9097,11 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9091,10 +9150,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
   </cols>
@@ -9153,10 +9212,10 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9205,10 +9264,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="A1:I19 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -9254,4 +9313,131 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="n">
+        <v>200000000000</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">7850</f>
+        <v>7850</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/codigo/2D/ejemplo_Q8/malla_2/malla2.xlsx
+++ b/codigo/2D/ejemplo_Q8/malla_2/malla2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -82,7 +82,6 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -115,45 +114,6 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/m^2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/m^2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/m^2</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F1" authorId="0">
       <text>
         <r>
@@ -181,6 +141,19 @@
       </text>
     </comment>
     <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +212,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,8 +278,8 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -318,8 +291,8 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -345,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -396,6 +369,15 @@
   </si>
   <si>
     <t xml:space="preserve">lado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodo_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodo_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodo_k</t>
   </si>
   <si>
     <t xml:space="preserve">tix</t>
@@ -529,6 +511,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -549,19 +538,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -573,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -597,8 +586,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -607,23 +599,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,14 +623,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Neutral 1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -653,7 +650,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -705,7 +702,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -714,9 +711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -726,7 +723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10121400" cy="9521640"/>
+          <a:ext cx="10146240" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,7 +747,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -759,9 +756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -771,7 +768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10121400" cy="9521640"/>
+          <a:ext cx="10146240" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,7 +797,7 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -809,9 +806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
+      <xdr:colOff>663120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -821,7 +818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10112400" cy="9521640"/>
+          <a:ext cx="10137240" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,7 +842,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -854,9 +851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
+      <xdr:colOff>663120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -866,7 +863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10112400" cy="9521640"/>
+          <a:ext cx="10137240" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,7 +892,7 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -904,9 +901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -916,7 +913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10131480" cy="9521640"/>
+          <a:ext cx="10161720" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -940,7 +937,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -949,9 +946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -961,7 +958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10131480" cy="9521640"/>
+          <a:ext cx="10161720" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,7 +982,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -994,9 +991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1006,7 +1003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10131480" cy="9521640"/>
+          <a:ext cx="10161720" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,7 +1027,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1039,9 +1036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1051,7 +1048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10131480" cy="9521640"/>
+          <a:ext cx="10161720" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,7 +1077,7 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1089,9 +1086,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
+      <xdr:colOff>780120</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1101,7 +1098,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10121400" cy="9521640"/>
+          <a:ext cx="10146240" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,7 +1122,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1134,9 +1131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
+      <xdr:colOff>780120</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1146,7 +1143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10121400" cy="9521640"/>
+          <a:ext cx="10146240" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,7 +1172,7 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1184,9 +1181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1196,7 +1193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10091520" cy="9558720"/>
+          <a:ext cx="10121400" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1220,7 +1217,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1229,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1241,7 +1238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10091520" cy="9558720"/>
+          <a:ext cx="10121400" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,7 +1262,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1274,9 +1271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1286,7 +1283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10091520" cy="9558720"/>
+          <a:ext cx="10121400" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,7 +1307,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1319,9 +1316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1331,7 +1328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10091520" cy="9558720"/>
+          <a:ext cx="10121400" cy="9558000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,10 +1363,10 @@
   <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
   </cols>
@@ -5479,7 +5476,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5497,10 +5494,10 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.51"/>
@@ -8778,7 +8775,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8794,10 +8791,10 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.37"/>
   </cols>
@@ -9080,7 +9077,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9095,13 +9092,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="A1:I19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9128,11 +9125,20 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9150,10 +9156,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
   </cols>
@@ -9166,7 +9172,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,7 +9200,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9209,13 +9215,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="A1:I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -9225,13 +9231,13 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
@@ -9241,12 +9247,21 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9264,26 +9279,26 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="A1:I19 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="A1:K1 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9306,7 +9321,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9320,121 +9335,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="1" sqref="A1:K1 Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="n">
         <v>200000000000</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">7850</f>
         <v>7850</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.81</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>10000</v>
       </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q13" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
